--- a/individual_case_outputs/avey/117.xlsx
+++ b/individual_case_outputs/avey/117.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>inflammation of heart muscle</t>
+          <t>infective endocarditis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -662,7 +662,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pneumonia</t>
+          <t>respiratory failure</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
